--- a/겜돌이 프로젝트 일정표.xlsx
+++ b/겜돌이 프로젝트 일정표.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>■ 날짜 :</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>데이터 베이스 설계 마무리 (부조장씨 꼼꼼히해서 마무리하세요)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exerd  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -366,11 +370,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="182" formatCode="0.0%"/>
-    <numFmt numFmtId="186" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1070,7 +1073,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -1141,10 +1144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1159,34 +1162,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1195,7 +1258,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,11 +1267,44 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1222,17 +1318,161 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1243,7 +1483,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,54 +1501,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,15 +1508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,101 +1519,14 @@
     <xf numFmtId="3" fontId="10" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,105 +1551,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="2" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1874,8 +1877,8 @@
   </sheetPr>
   <dimension ref="A1:AJ2205"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25:AJ26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1908,44 +1911,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
     </row>
     <row r="2" spans="1:36" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -1954,1449 +1957,1451 @@
       <c r="M2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="92">
+      <c r="O2" s="107">
         <v>44515</v>
       </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
       <c r="W2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="X2" s="25"/>
-      <c r="Y2" s="93" t="s">
+      <c r="Y2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
       <c r="AD2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AF2" s="93" t="s">
+      <c r="AF2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93" t="s">
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="93"/>
+      <c r="AJ2" s="108"/>
     </row>
     <row r="3" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98" t="s">
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="100" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="100"/>
-      <c r="O3" s="102" t="s">
+      <c r="N3" s="121"/>
+      <c r="O3" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="106">
+      <c r="P3" s="123"/>
+      <c r="Q3" s="125">
         <v>0.1</v>
       </c>
-      <c r="R3" s="107"/>
-      <c r="S3" s="102" t="s">
+      <c r="R3" s="126"/>
+      <c r="S3" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="103"/>
-      <c r="U3" s="106">
+      <c r="T3" s="123"/>
+      <c r="U3" s="125">
         <v>0.1</v>
       </c>
-      <c r="V3" s="107"/>
-      <c r="W3" s="102" t="s">
+      <c r="V3" s="126"/>
+      <c r="W3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="106">
+      <c r="X3" s="123"/>
+      <c r="Y3" s="125">
         <v>0.1</v>
       </c>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="111"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="115"/>
     </row>
     <row r="4" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="114" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="113"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="118"/>
     </row>
     <row r="5" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="42" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="44" t="s">
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="84" t="s">
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="42" t="s">
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="42" t="s">
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="84" t="s">
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="94" t="s">
+      <c r="AE5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="152"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="47"/>
     </row>
     <row r="6" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="85"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="136"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="138"/>
-      <c r="AI6" s="138"/>
-      <c r="AJ6" s="153"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="50"/>
     </row>
     <row r="7" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="88" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="148">
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="51">
         <v>45000</v>
       </c>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="149"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="21" t="e">
         <f>L7/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="139" t="s">
+      <c r="S7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="124" t="s">
+      <c r="T7" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="141" t="s">
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="88" t="s">
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="90"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="64"/>
       <c r="AD7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AE7" s="148">
+      <c r="AE7" s="51">
         <v>45000</v>
       </c>
-      <c r="AF7" s="149"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="149"/>
-      <c r="AJ7" s="149"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
     </row>
     <row r="8" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="29" t="s">
+      <c r="A8" s="130"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="150">
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="38">
         <v>45000</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="21" t="e">
         <f>L8/J8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="147"/>
-      <c r="T8" s="127" t="s">
+      <c r="S8" s="31"/>
+      <c r="T8" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="146"/>
-      <c r="AA8" s="29" t="s">
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="30"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="55"/>
       <c r="AD8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AE8" s="150">
+      <c r="AE8" s="38">
         <v>45000</v>
       </c>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
     </row>
     <row r="9" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="29" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="150">
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="38">
         <v>45000</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
       <c r="R9" s="21" t="e">
         <f>L9/J9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S9" s="140"/>
-      <c r="T9" s="130" t="s">
+      <c r="S9" s="30"/>
+      <c r="T9" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="29" t="s">
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="30"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="55"/>
       <c r="AD9" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AE9" s="150">
+      <c r="AE9" s="38">
         <v>45000</v>
       </c>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
     </row>
     <row r="10" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="151">
+      <c r="A10" s="130"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="89">
         <f t="shared" ref="P10:P18" si="0">L10+N10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="151"/>
+      <c r="Q10" s="89"/>
       <c r="R10" s="21" t="e">
         <f>P10/J10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="62" t="s">
+      <c r="S10" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="T10" s="133" t="s">
+      <c r="T10" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="75" t="s">
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="29" t="s">
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="30"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="55"/>
       <c r="AD10" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="AE10" s="150" t="s">
+      <c r="AE10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
     </row>
     <row r="11" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="151">
+      <c r="A11" s="130"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="151"/>
+      <c r="Q11" s="89"/>
       <c r="R11" s="27" t="e">
         <f t="shared" ref="R11:R20" si="1">P11/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="63"/>
-      <c r="T11" s="133" t="s">
+      <c r="S11" s="33"/>
+      <c r="T11" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="81" t="s">
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="29" t="s">
+      <c r="Y11" s="144"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="30"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="55"/>
       <c r="AD11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AE11" s="150" t="s">
+      <c r="AE11" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
     </row>
     <row r="12" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="34">
+      <c r="A12" s="130"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="39"/>
       <c r="R12" s="27" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="63"/>
-      <c r="T12" s="133" t="s">
+      <c r="S12" s="33"/>
+      <c r="T12" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="59" t="s">
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="29" t="s">
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="30"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="55"/>
       <c r="AD12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="150" t="s">
+      <c r="AE12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
     </row>
     <row r="13" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="29" t="s">
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="30"/>
-      <c r="L13" s="150">
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="L13" s="38">
         <v>45000</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
       <c r="R13" s="21" t="e">
         <f>P13/J14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S13" s="63"/>
-      <c r="T13" s="133" t="s">
+      <c r="S13" s="33"/>
+      <c r="T13" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="59" t="s">
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="29" t="s">
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="30"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="55"/>
       <c r="AD13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="150" t="s">
+      <c r="AE13" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
     </row>
     <row r="14" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="29" t="s">
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="150">
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="38">
         <v>45000</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
       <c r="R14" s="21" t="e">
         <f>P14/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="S14" s="63"/>
-      <c r="T14" s="133" t="s">
+      <c r="S14" s="33"/>
+      <c r="T14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="59" t="s">
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="29" t="s">
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="30"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="55"/>
       <c r="AD14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="150" t="s">
+      <c r="AE14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="34"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
     </row>
     <row r="15" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="29" t="s">
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="150">
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="38">
         <v>45000</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
       <c r="R15" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S15" s="63"/>
-      <c r="T15" s="133" t="s">
+      <c r="S15" s="33"/>
+      <c r="T15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="59" t="s">
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="29" t="s">
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="30"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="55"/>
       <c r="AD15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="150" t="s">
+      <c r="AE15" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
     </row>
     <row r="16" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="29" t="s">
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="150">
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="38">
         <v>45000</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
       <c r="R16" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S16" s="67"/>
-      <c r="T16" s="133" t="s">
+      <c r="S16" s="34"/>
+      <c r="T16" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="59" t="s">
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="29" t="s">
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="30"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="55"/>
       <c r="AD16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE16" s="150" t="s">
+      <c r="AE16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
     </row>
     <row r="17" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66" t="s">
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="150">
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="38">
         <v>45000</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
       <c r="R17" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="62" t="s">
+      <c r="S17" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="154" t="s">
+      <c r="T17" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="155"/>
-      <c r="AC17" s="156"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="37"/>
       <c r="AD17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="150"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="34"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
     </row>
     <row r="18" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="34">
+      <c r="A18" s="33"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="39"/>
       <c r="R18" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="67"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="30"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="55"/>
       <c r="AD18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="150"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
     </row>
     <row r="19" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
       <c r="R19" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="62" t="s">
+      <c r="S19" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="30"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="55"/>
       <c r="AD19" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE19" s="150"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
     </row>
     <row r="20" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
       <c r="R20" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="64"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="30"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="55"/>
       <c r="AD20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="150"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
     </row>
     <row r="21" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="31" t="s">
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="33"/>
+      <c r="T21" s="147"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="147"/>
+      <c r="AF21" s="147"/>
+      <c r="AG21" s="147"/>
+      <c r="AH21" s="147"/>
+      <c r="AI21" s="147"/>
+      <c r="AJ21" s="148"/>
     </row>
     <row r="22" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="48" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="50"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="101"/>
     </row>
     <row r="23" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="48" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="50"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="101"/>
     </row>
     <row r="24" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="51" t="s">
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="50"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="100"/>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="100"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="101"/>
     </row>
     <row r="25" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="50"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="100"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="101"/>
     </row>
     <row r="26" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="50"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="101"/>
     </row>
     <row r="27" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="49"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="50"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="100"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="101"/>
     </row>
     <row r="28" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="49"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="50"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="101"/>
     </row>
     <row r="29" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="50"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="101"/>
     </row>
     <row r="30" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="50"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="101"/>
     </row>
     <row r="31" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="50"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="101"/>
     </row>
     <row r="32" spans="1:36" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="50"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="101"/>
     </row>
     <row r="33" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5573,85 +5578,73 @@
     <row r="2205" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="S10:S16"/>
-    <mergeCell ref="T17:AC17"/>
-    <mergeCell ref="AE16:AJ16"/>
-    <mergeCell ref="AE17:AJ17"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="AE19:AJ19"/>
-    <mergeCell ref="AE20:AJ20"/>
-    <mergeCell ref="AE11:AJ11"/>
-    <mergeCell ref="AE12:AJ12"/>
-    <mergeCell ref="AE13:AJ13"/>
-    <mergeCell ref="AE14:AJ14"/>
-    <mergeCell ref="AE15:AJ15"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AJ6"/>
-    <mergeCell ref="AE7:AJ7"/>
-    <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="AE9:AJ9"/>
-    <mergeCell ref="AE10:AJ10"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AA5:AC6"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="B7:E9"/>
-    <mergeCell ref="B10:E12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:Q6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="X7:Z9"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="S31:AJ31"/>
+    <mergeCell ref="A32:R32"/>
+    <mergeCell ref="S32:AJ32"/>
+    <mergeCell ref="S27:AJ27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="S28:AJ28"/>
+    <mergeCell ref="A29:R29"/>
+    <mergeCell ref="S29:AJ29"/>
+    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="S30:AJ30"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="S21:AJ21"/>
+    <mergeCell ref="A22:R22"/>
+    <mergeCell ref="S22:AJ22"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="S23:AJ23"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="S24:AJ24"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="S25:AJ25"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="A5:E6"/>
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:W6"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:Z14"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="T7:W7"/>
@@ -5676,74 +5669,86 @@
     <mergeCell ref="W3:X4"/>
     <mergeCell ref="Y3:Z4"/>
     <mergeCell ref="F9:H9"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X7:Z9"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="T9:W9"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="A5:E6"/>
-    <mergeCell ref="F5:H6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:W6"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="S27:AJ27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="S28:AJ28"/>
-    <mergeCell ref="A29:R29"/>
-    <mergeCell ref="S29:AJ29"/>
-    <mergeCell ref="A30:R30"/>
-    <mergeCell ref="S30:AJ30"/>
-    <mergeCell ref="A21:R21"/>
-    <mergeCell ref="S21:AJ21"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="S22:AJ22"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="S23:AJ23"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="S24:AJ24"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="S25:AJ25"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A31:R31"/>
-    <mergeCell ref="S31:AJ31"/>
-    <mergeCell ref="A32:R32"/>
-    <mergeCell ref="S32:AJ32"/>
+    <mergeCell ref="B7:E9"/>
+    <mergeCell ref="B10:E12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:Q6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AJ6"/>
+    <mergeCell ref="AE7:AJ7"/>
+    <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="AE9:AJ9"/>
+    <mergeCell ref="AE10:AJ10"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AA5:AC6"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="S10:S16"/>
+    <mergeCell ref="T17:AC17"/>
+    <mergeCell ref="AE16:AJ16"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="AE19:AJ19"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="AE11:AJ11"/>
+    <mergeCell ref="AE12:AJ12"/>
+    <mergeCell ref="AE13:AJ13"/>
+    <mergeCell ref="AE14:AJ14"/>
+    <mergeCell ref="AE15:AJ15"/>
+    <mergeCell ref="T10:W10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5770,17 +5775,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -5790,26 +5795,26 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="123">
+      <c r="G3" s="156">
         <v>42491</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151"/>
       <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5939,15 +5944,15 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="3" t="s">
         <v>7</v>
       </c>
@@ -6017,15 +6022,15 @@
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="151"/>
       <c r="I21" s="3" t="s">
         <v>7</v>
       </c>
@@ -6107,15 +6112,15 @@
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
       <c r="I28" s="3"/>
       <c r="S28" s="1"/>
     </row>
@@ -6135,13 +6140,13 @@
     </row>
     <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="154"/>
       <c r="I30" s="20"/>
       <c r="S30" s="1"/>
     </row>
